--- a/data/ESRI_ETC_TC01.xlsx
+++ b/data/ESRI_ETC_TC01.xlsx
@@ -1,61 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\ESRI_TEST\ESRI-SEL-Auto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESRI_Automation\IAM_Project\ESRI-SElenium-FW\ESRI_Sel_POM_Framework\com.esri.test.automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="141"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="6030" tabRatio="141"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>etcurl</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>SignInBtn</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>EsriDevUrl</t>
+  </si>
+  <si>
+    <t>https://esri-qa.oktapreview.com/login/default</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
   </si>
   <si>
     <t>cont_bala</t>
   </si>
   <si>
-    <t>Esriselenium2017</t>
-  </si>
-  <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>https://esri-qa.oktapreview.com/login/default</t>
-  </si>
-  <si>
-    <t>displayName</t>
+    <t>EsriRitz5344</t>
   </si>
   <si>
     <t>Balaji Harinath</t>
+  </si>
+  <si>
+    <t>UserdisplayName</t>
+  </si>
+  <si>
+    <t>TimecardHeader</t>
+  </si>
+  <si>
+    <t>OverviewToggle</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>NextPeriodBtn</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>ChargeCode</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Firstcode</t>
+  </si>
+  <si>
+    <t>First Option</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Wuname</t>
+  </si>
+  <si>
+    <t>WPwd</t>
+  </si>
+  <si>
+    <t>Timecard</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MilesBtn</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,10 +121,31 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,18 +165,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF6A3E3E"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,6 +344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,65 +565,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125"/>
-    <col min="3" max="3" width="14.140625"/>
-    <col min="4" max="1009" width="11.5703125"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@12345"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ESRI_ETC_TC01.xlsx
+++ b/data/ESRI_ETC_TC01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -42,15 +42,6 @@
     <t>DisplayName</t>
   </si>
   <si>
-    <t>cont_bala</t>
-  </si>
-  <si>
-    <t>EsriRitz5344</t>
-  </si>
-  <si>
-    <t>Balaji Harinath</t>
-  </si>
-  <si>
     <t>UserdisplayName</t>
   </si>
   <si>
@@ -69,21 +60,12 @@
     <t>Next</t>
   </si>
   <si>
-    <t>ChargeCode</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Firstcode</t>
-  </si>
-  <si>
     <t>First Option</t>
   </si>
   <si>
-    <t>Balaji</t>
-  </si>
-  <si>
     <t>Wuname</t>
   </si>
   <si>
@@ -93,19 +75,82 @@
     <t>Timecard</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>MilesBtn</t>
-  </si>
-  <si>
     <t>Miles</t>
   </si>
   <si>
     <t>150</t>
+  </si>
+  <si>
+    <t>Esritestautomation7</t>
+  </si>
+  <si>
+    <t>ResolvePost123</t>
+  </si>
+  <si>
+    <t>AVWORLD\Esritestautomation7</t>
+  </si>
+  <si>
+    <t>Esri Test</t>
+  </si>
+  <si>
+    <t>ChargeCodeIT</t>
+  </si>
+  <si>
+    <t>ITCode1</t>
+  </si>
+  <si>
+    <t>Hours1</t>
+  </si>
+  <si>
+    <t>MilesBtn1</t>
+  </si>
+  <si>
+    <t>Miles1</t>
+  </si>
+  <si>
+    <t>ChargeCodeVac</t>
+  </si>
+  <si>
+    <t>Vacat</t>
+  </si>
+  <si>
+    <t>VacCode</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Hours2</t>
+  </si>
+  <si>
+    <t>Miles2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>SaveBtn</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>TotalMiles</t>
+  </si>
+  <si>
+    <t>TotalHours</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -565,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -576,7 +621,7 @@
     <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,90 +635,132 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>28</v>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
